--- a/datalogging/power consumption/energest/converted868-merged.xlsx
+++ b/datalogging/power consumption/energest/converted868-merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univ\SensorManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DFD74-4D37-4D5C-AB23-9B6C69A9164C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B279F7-C1D9-4F27-87DF-98BB764C7FD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{F30A0F9C-AB45-457A-873D-50580520C9C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="4" xr2:uid="{F30A0F9C-AB45-457A-873D-50580520C9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="run1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="25">
   <si>
     <t>packet</t>
   </si>
@@ -99,6 +99,12 @@
   <si>
     <t>individual packet:</t>
   </si>
+  <si>
+    <t>x voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mW/h: </t>
+  </si>
 </sst>
 </file>
 
@@ -149,10 +155,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3232CE-32D9-40CA-A013-F5C75162A369}">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="J323" sqref="J323"/>
+    <sheetView topLeftCell="B308" workbookViewId="0">
+      <selection activeCell="O313" sqref="O313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,20 +494,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12538,7 +12544,7 @@
         <v>296.4940185546875</v>
       </c>
     </row>
-    <row r="306" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -12547,7 +12553,7 @@
         <v>291.97097778320313</v>
       </c>
     </row>
-    <row r="308" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -12567,83 +12573,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H309">
-        <f>20*10^-6</f>
-        <v>1.9999999999999998E-5</v>
+        <f>20*10^-3</f>
+        <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-6</f>
-        <v>1.2E-5</v>
+        <f>12*10^-3</f>
+        <v>1.2E-2</v>
       </c>
       <c r="L309">
-        <f>19*10^-6</f>
-        <v>1.8999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="310" spans="4:12" x14ac:dyDescent="0.3">
+        <f>19*10^-3</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
       <c r="I310">
-        <f>0.6*10^-6</f>
-        <v>5.9999999999999997E-7</v>
-      </c>
-    </row>
-    <row r="311" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.6*10^-3</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
       <c r="I311">
-        <f>1.3*10^-9</f>
-        <v>1.3000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="312" spans="4:12" x14ac:dyDescent="0.3">
+        <f>1.3*10^-6</f>
+        <v>1.3E-6</v>
+      </c>
+    </row>
+    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
       <c r="I312">
-        <f>0.4*10^-9</f>
-        <v>4.0000000000000007E-10</v>
-      </c>
-    </row>
-    <row r="314" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.4*10^-6</f>
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
       <c r="H314">
         <f>H303*H309</f>
-        <v>1.5500549316406248E-4</v>
+        <v>0.15500549316406251</v>
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.9361328125000002E-5</v>
+        <v>2.9361328124999999E-2</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
-        <v>5.633386352539062E-3</v>
-      </c>
-    </row>
-    <row r="315" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.6333863525390626</v>
+      </c>
+    </row>
+    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
-        <v>1.7518258666992186E-4</v>
-      </c>
-    </row>
-    <row r="316" spans="4:12" x14ac:dyDescent="0.3">
+        <v>0.17518258666992187</v>
+      </c>
+    </row>
+    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
-        <v>3.7956227111816409E-7</v>
-      </c>
-    </row>
-    <row r="317" spans="4:12" x14ac:dyDescent="0.3">
+        <v>3.7956227111816406E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
-        <v>1.1678839111328128E-7</v>
-      </c>
-    </row>
-    <row r="320" spans="4:12" x14ac:dyDescent="0.3">
+        <v>1.1678839111328124E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -12652,37 +12658,78 @@
       </c>
       <c r="G320">
         <f>H309+K309+L309</f>
-        <v>5.0999999999999993E-5</v>
-      </c>
-    </row>
-    <row r="321" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="I320" t="s">
+        <v>23</v>
+      </c>
+      <c r="J320">
+        <v>3.7</v>
+      </c>
+      <c r="K320">
+        <f>J320*G320</f>
+        <v>0.18870000000000003</v>
+      </c>
+      <c r="M320" t="s">
+        <v>24</v>
+      </c>
+      <c r="N320">
+        <f>(K320/12) * 1000</f>
+        <v>15.725000000000003</v>
+      </c>
+    </row>
+    <row r="321" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E321" t="s">
         <v>11</v>
       </c>
       <c r="G321">
         <f>G320+I310</f>
-        <v>5.1599999999999994E-5</v>
-      </c>
-    </row>
-    <row r="322" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1600000000000007E-2</v>
+      </c>
+      <c r="K321">
+        <f>G321*J320</f>
+        <v>0.19092000000000003</v>
+      </c>
+      <c r="N321">
+        <f>(K321/12) * 1000</f>
+        <v>15.910000000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E322" t="s">
         <v>12</v>
       </c>
       <c r="G322">
         <f>G320+I311</f>
-        <v>5.1001299999999996E-5</v>
-      </c>
-    </row>
-    <row r="323" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1001300000000006E-2</v>
+      </c>
+      <c r="K322">
+        <f>G322*J320</f>
+        <v>0.18870481000000003</v>
+      </c>
+      <c r="N322">
+        <f>(K322/12) * 1000</f>
+        <v>15.725400833333337</v>
+      </c>
+    </row>
+    <row r="323" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E323" t="s">
         <v>13</v>
       </c>
       <c r="G323">
         <f>G320+I312</f>
-        <v>5.1000399999999994E-5</v>
-      </c>
-    </row>
-    <row r="327" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1000400000000001E-2</v>
+      </c>
+      <c r="K323">
+        <f>G323*J320</f>
+        <v>0.18870148</v>
+      </c>
+      <c r="N323">
+        <f>(K323/12) * 1000</f>
+        <v>15.725123333333334</v>
+      </c>
+    </row>
+    <row r="327" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>22</v>
       </c>
@@ -12699,42 +12746,121 @@
         <v>0.99822997999999996</v>
       </c>
     </row>
-    <row r="329" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>19</v>
       </c>
-      <c r="H329" s="2">
+      <c r="H329" s="1">
         <v>1.59484E-9</v>
       </c>
-      <c r="K329" s="2">
+      <c r="K329" s="1">
         <v>4.2480500000000001E-8</v>
       </c>
-      <c r="L329" s="2">
+      <c r="L329" s="1">
         <v>1.9964599999999999E-5</v>
       </c>
-    </row>
-    <row r="330" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N329" t="s">
+        <v>23</v>
+      </c>
+      <c r="O329">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="330" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E330" t="s">
         <v>11</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="1">
         <v>5.9240099999999996E-7</v>
       </c>
-    </row>
-    <row r="331" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O330" s="1">
+        <f>I330*O329</f>
+        <v>2.1918836999999999E-6</v>
+      </c>
+    </row>
+    <row r="331" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E331" t="s">
         <v>12</v>
       </c>
-      <c r="I331" s="2">
+      <c r="I331" s="1">
         <v>3.7957200000000001E-7</v>
       </c>
-    </row>
-    <row r="332" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O331" s="1">
+        <f>I331*O329</f>
+        <v>1.4044164E-6</v>
+      </c>
+    </row>
+    <row r="332" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E332" t="s">
         <v>13</v>
       </c>
-      <c r="I332" s="2">
+      <c r="I332" s="1">
         <v>3.9493399999999998E-10</v>
+      </c>
+      <c r="O332" s="1">
+        <f>I332*O329</f>
+        <v>1.4612558000000001E-9</v>
+      </c>
+    </row>
+    <row r="335" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D335" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" t="s">
+        <v>21</v>
+      </c>
+      <c r="G335">
+        <f>H329+K329+L329</f>
+        <v>2.0008675339999999E-5</v>
+      </c>
+      <c r="I335" t="s">
+        <v>23</v>
+      </c>
+      <c r="J335">
+        <v>3.7</v>
+      </c>
+      <c r="K335">
+        <f>G335*J335</f>
+        <v>7.4032098758E-5</v>
+      </c>
+    </row>
+    <row r="336" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E336" t="s">
+        <v>11</v>
+      </c>
+      <c r="G336">
+        <f>G335+I330</f>
+        <v>2.060107634E-5</v>
+      </c>
+      <c r="K336">
+        <f>G336*J335</f>
+        <v>7.622398245800001E-5</v>
+      </c>
+    </row>
+    <row r="337" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E337" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337">
+        <f>G335+I331</f>
+        <v>2.0388247339999998E-5</v>
+      </c>
+      <c r="K337">
+        <f>G337*J335</f>
+        <v>7.5436515157999999E-5</v>
+      </c>
+    </row>
+    <row r="338" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338">
+        <f>H329+I332</f>
+        <v>1.9897739999999999E-9</v>
+      </c>
+      <c r="K338">
+        <f>G338*J335</f>
+        <v>7.3621638000000001E-9</v>
       </c>
     </row>
   </sheetData>
@@ -12748,10 +12874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FD58DA-54AC-45E0-A57A-7D1E09A4CA94}">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
-    <sheetView topLeftCell="B314" workbookViewId="0">
-      <selection activeCell="D327" sqref="D327:L332"/>
+    <sheetView topLeftCell="B305" workbookViewId="0">
+      <selection activeCell="H309" sqref="H309:L312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12765,20 +12891,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -24815,7 +24941,7 @@
         <v>296.494140625</v>
       </c>
     </row>
-    <row r="306" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -24824,7 +24950,7 @@
         <v>291.98403930664063</v>
       </c>
     </row>
-    <row r="308" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -24844,83 +24970,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H309">
-        <f>20*10^-6</f>
-        <v>1.9999999999999998E-5</v>
+        <f>20*10^-3</f>
+        <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-6</f>
-        <v>1.2E-5</v>
+        <f>12*10^-3</f>
+        <v>1.2E-2</v>
       </c>
       <c r="L309">
-        <f>19*10^-6</f>
-        <v>1.8999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="310" spans="4:12" x14ac:dyDescent="0.3">
+        <f>19*10^-3</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
       <c r="I310">
-        <f>0.6*10^-6</f>
-        <v>5.9999999999999997E-7</v>
-      </c>
-    </row>
-    <row r="311" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.6*10^-3</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
       <c r="I311">
-        <f>1.3*10^-9</f>
-        <v>1.3000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="312" spans="4:12" x14ac:dyDescent="0.3">
+        <f>1.3*10^-6</f>
+        <v>1.3E-6</v>
+      </c>
+    </row>
+    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
       <c r="I312">
-        <f>0.4*10^-9</f>
-        <v>4.0000000000000007E-10</v>
-      </c>
-    </row>
-    <row r="314" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.4*10^-6</f>
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
       <c r="H314">
         <f>H303*H309</f>
-        <v>1.5474426269531248E-4</v>
+        <v>0.1547442626953125</v>
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.9357299804687502E-5</v>
+        <v>2.9357299804687501E-2</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
-        <v>5.6333886718749997E-3</v>
-      </c>
-    </row>
-    <row r="315" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.6333886718750001</v>
+      </c>
+    </row>
+    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
-        <v>1.7519042358398436E-4</v>
-      </c>
-    </row>
-    <row r="316" spans="4:12" x14ac:dyDescent="0.3">
+        <v>0.17519042358398437</v>
+      </c>
+    </row>
+    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
-        <v>3.7957925109863286E-7</v>
-      </c>
-    </row>
-    <row r="317" spans="4:12" x14ac:dyDescent="0.3">
+        <v>3.7957925109863283E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
-        <v>1.1679361572265627E-7</v>
-      </c>
-    </row>
-    <row r="320" spans="4:12" x14ac:dyDescent="0.3">
+        <v>1.1679361572265624E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -24929,37 +25055,78 @@
       </c>
       <c r="G320">
         <f>H309+K309+L309</f>
-        <v>5.0999999999999993E-5</v>
-      </c>
-    </row>
-    <row r="321" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="I320" t="s">
+        <v>23</v>
+      </c>
+      <c r="J320">
+        <v>3.7</v>
+      </c>
+      <c r="K320">
+        <f>J320*G320</f>
+        <v>0.18870000000000003</v>
+      </c>
+      <c r="M320" t="s">
+        <v>24</v>
+      </c>
+      <c r="N320">
+        <f>(K320/12) * 1000</f>
+        <v>15.725000000000003</v>
+      </c>
+    </row>
+    <row r="321" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E321" t="s">
         <v>11</v>
       </c>
       <c r="G321">
         <f>G320+I310</f>
-        <v>5.1599999999999994E-5</v>
-      </c>
-    </row>
-    <row r="322" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1600000000000007E-2</v>
+      </c>
+      <c r="K321">
+        <f>G321*J320</f>
+        <v>0.19092000000000003</v>
+      </c>
+      <c r="N321">
+        <f>(K321/12) * 1000</f>
+        <v>15.910000000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E322" t="s">
         <v>12</v>
       </c>
       <c r="G322">
         <f>G320+I311</f>
-        <v>5.1001299999999996E-5</v>
-      </c>
-    </row>
-    <row r="323" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1001300000000006E-2</v>
+      </c>
+      <c r="K322">
+        <f>G322*J320</f>
+        <v>0.18870481000000003</v>
+      </c>
+      <c r="N322">
+        <f>(K322/12) * 1000</f>
+        <v>15.725400833333337</v>
+      </c>
+    </row>
+    <row r="323" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E323" t="s">
         <v>13</v>
       </c>
       <c r="G323">
         <f>G320+I312</f>
-        <v>5.1000399999999994E-5</v>
-      </c>
-    </row>
-    <row r="327" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1000400000000001E-2</v>
+      </c>
+      <c r="K323">
+        <f>G323*J320</f>
+        <v>0.18870148</v>
+      </c>
+      <c r="N323">
+        <f>(K323/12) * 1000</f>
+        <v>15.725123333333334</v>
+      </c>
+    </row>
+    <row r="327" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>22</v>
       </c>
@@ -24976,42 +25143,121 @@
         <v>0.99822997999999996</v>
       </c>
     </row>
-    <row r="329" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>19</v>
       </c>
-      <c r="H329" s="2">
+      <c r="H329" s="1">
         <v>1.59484E-9</v>
       </c>
-      <c r="K329" s="2">
+      <c r="K329" s="1">
         <v>4.2480500000000001E-8</v>
       </c>
-      <c r="L329" s="2">
+      <c r="L329" s="1">
         <v>1.9964599999999999E-5</v>
       </c>
-    </row>
-    <row r="330" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N329" t="s">
+        <v>23</v>
+      </c>
+      <c r="O329">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="330" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E330" t="s">
         <v>11</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="1">
         <v>5.9240099999999996E-7</v>
       </c>
-    </row>
-    <row r="331" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O330" s="1">
+        <f>I330*O329</f>
+        <v>2.1918836999999999E-6</v>
+      </c>
+    </row>
+    <row r="331" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E331" t="s">
         <v>12</v>
       </c>
-      <c r="I331" s="2">
+      <c r="I331" s="1">
         <v>3.7957200000000001E-7</v>
       </c>
-    </row>
-    <row r="332" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O331" s="1">
+        <f>I331*O329</f>
+        <v>1.4044164E-6</v>
+      </c>
+    </row>
+    <row r="332" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E332" t="s">
         <v>13</v>
       </c>
-      <c r="I332" s="2">
+      <c r="I332" s="1">
         <v>3.9493399999999998E-10</v>
+      </c>
+      <c r="O332" s="1">
+        <f>I332*O329</f>
+        <v>1.4612558000000001E-9</v>
+      </c>
+    </row>
+    <row r="335" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D335" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" t="s">
+        <v>21</v>
+      </c>
+      <c r="G335">
+        <f>H329+K329+L329</f>
+        <v>2.0008675339999999E-5</v>
+      </c>
+      <c r="I335" t="s">
+        <v>23</v>
+      </c>
+      <c r="J335">
+        <v>3.7</v>
+      </c>
+      <c r="K335">
+        <f>G335*J335</f>
+        <v>7.4032098758E-5</v>
+      </c>
+    </row>
+    <row r="336" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E336" t="s">
+        <v>11</v>
+      </c>
+      <c r="G336">
+        <f>G335+I330</f>
+        <v>2.060107634E-5</v>
+      </c>
+      <c r="K336">
+        <f>G336*J335</f>
+        <v>7.622398245800001E-5</v>
+      </c>
+    </row>
+    <row r="337" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E337" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337">
+        <f>G335+I331</f>
+        <v>2.0388247339999998E-5</v>
+      </c>
+      <c r="K337">
+        <f>G337*J335</f>
+        <v>7.5436515157999999E-5</v>
+      </c>
+    </row>
+    <row r="338" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338">
+        <f>H329+I332</f>
+        <v>1.9897739999999999E-9</v>
+      </c>
+      <c r="K338">
+        <f>G338*J335</f>
+        <v>7.3621638000000001E-9</v>
       </c>
     </row>
   </sheetData>
@@ -25025,10 +25271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A0B85E-A40C-4037-871C-C65DF98E32B2}">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="D327" sqref="D327:L332"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="H309" sqref="H309:L312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25042,20 +25288,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -37092,7 +37338,7 @@
         <v>296.49349975585938</v>
       </c>
     </row>
-    <row r="306" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -37101,7 +37347,7 @@
         <v>292.03347778320313</v>
       </c>
     </row>
-    <row r="308" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -37121,83 +37367,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H309">
-        <f>20*10^-6</f>
-        <v>1.9999999999999998E-5</v>
+        <f>20*10^-3</f>
+        <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-6</f>
-        <v>1.2E-5</v>
+        <f>12*10^-3</f>
+        <v>1.2E-2</v>
       </c>
       <c r="L309">
-        <f>19*10^-6</f>
-        <v>1.8999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="310" spans="4:12" x14ac:dyDescent="0.3">
+        <f>19*10^-3</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
       <c r="I310">
-        <f>0.6*10^-6</f>
-        <v>5.9999999999999997E-7</v>
-      </c>
-    </row>
-    <row r="311" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.6*10^-3</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
       <c r="I311">
-        <f>1.3*10^-9</f>
-        <v>1.3000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="312" spans="4:12" x14ac:dyDescent="0.3">
+        <f>1.3*10^-6</f>
+        <v>1.3E-6</v>
+      </c>
+    </row>
+    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
       <c r="I312">
-        <f>0.4*10^-9</f>
-        <v>4.0000000000000007E-10</v>
-      </c>
-    </row>
-    <row r="314" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.4*10^-6</f>
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
       <c r="H314">
         <f>H303*H309</f>
-        <v>1.5376892089843749E-4</v>
+        <v>0.15376892089843749</v>
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.9367187500000001E-5</v>
+        <v>2.9367187499999999E-2</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
-        <v>5.6333764953613273E-3</v>
-      </c>
-    </row>
-    <row r="315" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.6333764953613281</v>
+      </c>
+    </row>
+    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
-        <v>1.7522008666992186E-4</v>
-      </c>
-    </row>
-    <row r="316" spans="4:12" x14ac:dyDescent="0.3">
+        <v>0.17522008666992187</v>
+      </c>
+    </row>
+    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
-        <v>3.796435211181641E-7</v>
-      </c>
-    </row>
-    <row r="317" spans="4:12" x14ac:dyDescent="0.3">
+        <v>3.7964352111816407E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
-        <v>1.1681339111328126E-7</v>
-      </c>
-    </row>
-    <row r="320" spans="4:12" x14ac:dyDescent="0.3">
+        <v>1.1681339111328124E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -37206,37 +37452,78 @@
       </c>
       <c r="G320">
         <f>H309+K309+L309</f>
-        <v>5.0999999999999993E-5</v>
-      </c>
-    </row>
-    <row r="321" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="I320" t="s">
+        <v>23</v>
+      </c>
+      <c r="J320">
+        <v>3.7</v>
+      </c>
+      <c r="K320">
+        <f>J320*G320</f>
+        <v>0.18870000000000003</v>
+      </c>
+      <c r="M320" t="s">
+        <v>24</v>
+      </c>
+      <c r="N320">
+        <f>(K320/12) * 1000</f>
+        <v>15.725000000000003</v>
+      </c>
+    </row>
+    <row r="321" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E321" t="s">
         <v>11</v>
       </c>
       <c r="G321">
         <f>G320+I310</f>
-        <v>5.1599999999999994E-5</v>
-      </c>
-    </row>
-    <row r="322" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1600000000000007E-2</v>
+      </c>
+      <c r="K321">
+        <f>G321*J320</f>
+        <v>0.19092000000000003</v>
+      </c>
+      <c r="N321">
+        <f>(K321/12) * 1000</f>
+        <v>15.910000000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E322" t="s">
         <v>12</v>
       </c>
       <c r="G322">
         <f>G320+I311</f>
-        <v>5.1001299999999996E-5</v>
-      </c>
-    </row>
-    <row r="323" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1001300000000006E-2</v>
+      </c>
+      <c r="K322">
+        <f>G322*J320</f>
+        <v>0.18870481000000003</v>
+      </c>
+      <c r="N322">
+        <f>(K322/12) * 1000</f>
+        <v>15.725400833333337</v>
+      </c>
+    </row>
+    <row r="323" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E323" t="s">
         <v>13</v>
       </c>
       <c r="G323">
         <f>G320+I312</f>
-        <v>5.1000399999999994E-5</v>
-      </c>
-    </row>
-    <row r="327" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1000400000000001E-2</v>
+      </c>
+      <c r="K323">
+        <f>G323*J320</f>
+        <v>0.18870148</v>
+      </c>
+      <c r="N323">
+        <f>(K323/12) * 1000</f>
+        <v>15.725123333333334</v>
+      </c>
+    </row>
+    <row r="327" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>22</v>
       </c>
@@ -37253,42 +37540,121 @@
         <v>0.99822997999999996</v>
       </c>
     </row>
-    <row r="329" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>19</v>
       </c>
-      <c r="H329" s="2">
+      <c r="H329" s="1">
         <v>1.59484E-9</v>
       </c>
-      <c r="K329" s="2">
+      <c r="K329" s="1">
         <v>4.2480500000000001E-8</v>
       </c>
-      <c r="L329" s="2">
+      <c r="L329" s="1">
         <v>1.9964599999999999E-5</v>
       </c>
-    </row>
-    <row r="330" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N329" t="s">
+        <v>23</v>
+      </c>
+      <c r="O329">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="330" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E330" t="s">
         <v>11</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="1">
         <v>5.9240099999999996E-7</v>
       </c>
-    </row>
-    <row r="331" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O330" s="1">
+        <f>I330*O329</f>
+        <v>2.1918836999999999E-6</v>
+      </c>
+    </row>
+    <row r="331" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E331" t="s">
         <v>12</v>
       </c>
-      <c r="I331" s="2">
+      <c r="I331" s="1">
         <v>3.7957200000000001E-7</v>
       </c>
-    </row>
-    <row r="332" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O331" s="1">
+        <f>I331*O329</f>
+        <v>1.4044164E-6</v>
+      </c>
+    </row>
+    <row r="332" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E332" t="s">
         <v>13</v>
       </c>
-      <c r="I332" s="2">
+      <c r="I332" s="1">
         <v>3.9493399999999998E-10</v>
+      </c>
+      <c r="O332" s="1">
+        <f>I332*O329</f>
+        <v>1.4612558000000001E-9</v>
+      </c>
+    </row>
+    <row r="335" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D335" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" t="s">
+        <v>21</v>
+      </c>
+      <c r="G335">
+        <f>H329+K329+L329</f>
+        <v>2.0008675339999999E-5</v>
+      </c>
+      <c r="I335" t="s">
+        <v>23</v>
+      </c>
+      <c r="J335">
+        <v>3.7</v>
+      </c>
+      <c r="K335">
+        <f>G335*J335</f>
+        <v>7.4032098758E-5</v>
+      </c>
+    </row>
+    <row r="336" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E336" t="s">
+        <v>11</v>
+      </c>
+      <c r="G336">
+        <f>G335+I330</f>
+        <v>2.060107634E-5</v>
+      </c>
+      <c r="K336">
+        <f>G336*J335</f>
+        <v>7.622398245800001E-5</v>
+      </c>
+    </row>
+    <row r="337" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E337" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337">
+        <f>G335+I331</f>
+        <v>2.0388247339999998E-5</v>
+      </c>
+      <c r="K337">
+        <f>G337*J335</f>
+        <v>7.5436515157999999E-5</v>
+      </c>
+    </row>
+    <row r="338" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338">
+        <f>H329+I332</f>
+        <v>1.9897739999999999E-9</v>
+      </c>
+      <c r="K338">
+        <f>G338*J335</f>
+        <v>7.3621638000000001E-9</v>
       </c>
     </row>
   </sheetData>
@@ -37302,13 +37668,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C591C4EB-3C62-43B1-BAA6-F30B8357220D}">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
     <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="D327" sqref="D327:L332"/>
+      <selection activeCell="H309" sqref="H309:L312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -37319,20 +37688,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -49369,7 +49738,7 @@
         <v>296.49365234375</v>
       </c>
     </row>
-    <row r="306" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -49378,7 +49747,7 @@
         <v>292.00408935546875</v>
       </c>
     </row>
-    <row r="308" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -49398,83 +49767,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H309">
-        <f>20*10^-6</f>
-        <v>1.9999999999999998E-5</v>
+        <f>20*10^-3</f>
+        <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-6</f>
-        <v>1.2E-5</v>
+        <f>12*10^-3</f>
+        <v>1.2E-2</v>
       </c>
       <c r="L309">
-        <f>19*10^-6</f>
-        <v>1.8999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="310" spans="4:12" x14ac:dyDescent="0.3">
+        <f>19*10^-3</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
       <c r="I310">
-        <f>0.6*10^-6</f>
-        <v>5.9999999999999997E-7</v>
-      </c>
-    </row>
-    <row r="311" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.6*10^-3</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
       <c r="I311">
-        <f>1.3*10^-9</f>
-        <v>1.3000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="312" spans="4:12" x14ac:dyDescent="0.3">
+        <f>1.3*10^-6</f>
+        <v>1.3E-6</v>
+      </c>
+    </row>
+    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
       <c r="I312">
-        <f>0.4*10^-9</f>
-        <v>4.0000000000000007E-10</v>
-      </c>
-    </row>
-    <row r="314" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.4*10^-6</f>
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
       <c r="H314">
         <f>H303*H309</f>
-        <v>1.5435607910156248E-4</v>
+        <v>0.15435607910156252</v>
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.93660888671875E-5</v>
+        <v>2.9366088867187501E-2</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
-        <v>5.6333793945312497E-3</v>
-      </c>
-    </row>
-    <row r="315" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.63337939453125</v>
+      </c>
+    </row>
+    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
-        <v>1.7520245361328125E-4</v>
-      </c>
-    </row>
-    <row r="316" spans="4:12" x14ac:dyDescent="0.3">
+        <v>0.17520245361328124</v>
+      </c>
+    </row>
+    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
-        <v>3.796053161621094E-7</v>
-      </c>
-    </row>
-    <row r="317" spans="4:12" x14ac:dyDescent="0.3">
+        <v>3.7960531616210939E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
-        <v>1.1680163574218752E-7</v>
-      </c>
-    </row>
-    <row r="320" spans="4:12" x14ac:dyDescent="0.3">
+        <v>1.168016357421875E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -49483,37 +49852,78 @@
       </c>
       <c r="G320">
         <f>H309+K309+L309</f>
-        <v>5.0999999999999993E-5</v>
-      </c>
-    </row>
-    <row r="321" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="I320" t="s">
+        <v>23</v>
+      </c>
+      <c r="J320">
+        <v>3.7</v>
+      </c>
+      <c r="K320">
+        <f>J320*G320</f>
+        <v>0.18870000000000003</v>
+      </c>
+      <c r="M320" t="s">
+        <v>24</v>
+      </c>
+      <c r="N320">
+        <f>(K320/12) * 1000</f>
+        <v>15.725000000000003</v>
+      </c>
+    </row>
+    <row r="321" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E321" t="s">
         <v>11</v>
       </c>
       <c r="G321">
         <f>G320+I310</f>
-        <v>5.1599999999999994E-5</v>
-      </c>
-    </row>
-    <row r="322" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1600000000000007E-2</v>
+      </c>
+      <c r="K321">
+        <f>G321*J320</f>
+        <v>0.19092000000000003</v>
+      </c>
+      <c r="N321">
+        <f>(K321/12) * 1000</f>
+        <v>15.910000000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E322" t="s">
         <v>12</v>
       </c>
       <c r="G322">
         <f>G320+I311</f>
-        <v>5.1001299999999996E-5</v>
-      </c>
-    </row>
-    <row r="323" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1001300000000006E-2</v>
+      </c>
+      <c r="K322">
+        <f>G322*J320</f>
+        <v>0.18870481000000003</v>
+      </c>
+      <c r="N322">
+        <f>(K322/12) * 1000</f>
+        <v>15.725400833333337</v>
+      </c>
+    </row>
+    <row r="323" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E323" t="s">
         <v>13</v>
       </c>
       <c r="G323">
         <f>G320+I312</f>
-        <v>5.1000399999999994E-5</v>
-      </c>
-    </row>
-    <row r="327" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.1000400000000001E-2</v>
+      </c>
+      <c r="K323">
+        <f>G323*J320</f>
+        <v>0.18870148</v>
+      </c>
+      <c r="N323">
+        <f>(K323/12) * 1000</f>
+        <v>15.725123333333334</v>
+      </c>
+    </row>
+    <row r="327" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>22</v>
       </c>
@@ -49530,42 +49940,121 @@
         <v>0.99822997999999996</v>
       </c>
     </row>
-    <row r="329" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>19</v>
       </c>
-      <c r="H329" s="2">
+      <c r="H329" s="1">
         <v>1.59484E-9</v>
       </c>
-      <c r="K329" s="2">
+      <c r="K329" s="1">
         <v>4.2480500000000001E-8</v>
       </c>
-      <c r="L329" s="2">
+      <c r="L329" s="1">
         <v>1.9964599999999999E-5</v>
       </c>
-    </row>
-    <row r="330" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N329" t="s">
+        <v>23</v>
+      </c>
+      <c r="O329">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="330" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E330" t="s">
         <v>11</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="1">
         <v>5.9240099999999996E-7</v>
       </c>
-    </row>
-    <row r="331" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O330" s="1">
+        <f>I330*O329</f>
+        <v>2.1918836999999999E-6</v>
+      </c>
+    </row>
+    <row r="331" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E331" t="s">
         <v>12</v>
       </c>
-      <c r="I331" s="2">
+      <c r="I331" s="1">
         <v>3.7957200000000001E-7</v>
       </c>
-    </row>
-    <row r="332" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O331" s="1">
+        <f>I331*O329</f>
+        <v>1.4044164E-6</v>
+      </c>
+    </row>
+    <row r="332" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E332" t="s">
         <v>13</v>
       </c>
-      <c r="I332" s="2">
+      <c r="I332" s="1">
         <v>3.9493399999999998E-10</v>
+      </c>
+      <c r="O332" s="1">
+        <f>I332*O329</f>
+        <v>1.4612558000000001E-9</v>
+      </c>
+    </row>
+    <row r="335" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D335" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" t="s">
+        <v>21</v>
+      </c>
+      <c r="G335">
+        <f>H329+K329+L329</f>
+        <v>2.0008675339999999E-5</v>
+      </c>
+      <c r="I335" t="s">
+        <v>23</v>
+      </c>
+      <c r="J335">
+        <v>3.7</v>
+      </c>
+      <c r="K335">
+        <f>G335*J335</f>
+        <v>7.4032098758E-5</v>
+      </c>
+    </row>
+    <row r="336" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E336" t="s">
+        <v>11</v>
+      </c>
+      <c r="G336">
+        <f>G335+I330</f>
+        <v>2.060107634E-5</v>
+      </c>
+      <c r="K336">
+        <f>G336*J335</f>
+        <v>7.622398245800001E-5</v>
+      </c>
+    </row>
+    <row r="337" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E337" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337">
+        <f>G335+I331</f>
+        <v>2.0388247339999998E-5</v>
+      </c>
+      <c r="K337">
+        <f>G337*J335</f>
+        <v>7.5436515157999999E-5</v>
+      </c>
+    </row>
+    <row r="338" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338">
+        <f>H329+I332</f>
+        <v>1.9897739999999999E-9</v>
+      </c>
+      <c r="K338">
+        <f>G338*J335</f>
+        <v>7.3621638000000001E-9</v>
       </c>
     </row>
   </sheetData>
@@ -49579,10 +50068,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E516A6-6E6E-4755-BC29-C8CBC992455D}">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:O338"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="D327" sqref="D327:L332"/>
+    <sheetView tabSelected="1" topLeftCell="E301" workbookViewId="0">
+      <selection activeCell="K310" sqref="K310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49596,20 +50085,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -61646,7 +62135,7 @@
         <v>296.49356079101563</v>
       </c>
     </row>
-    <row r="306" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -61655,7 +62144,7 @@
         <v>291.99542236328125</v>
       </c>
     </row>
-    <row r="308" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -61675,83 +62164,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
       <c r="H309">
-        <f>20*10^-6</f>
-        <v>1.9999999999999998E-5</v>
+        <f>20*10^-3</f>
+        <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-6</f>
-        <v>1.2E-5</v>
+        <f>35*10^-3</f>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L309">
-        <f>19*10^-6</f>
-        <v>1.8999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="310" spans="4:12" x14ac:dyDescent="0.3">
+        <f>19*10^-3</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
       <c r="I310">
-        <f>0.6*10^-6</f>
-        <v>5.9999999999999997E-7</v>
-      </c>
-    </row>
-    <row r="311" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.6*10^-3</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
       <c r="I311">
-        <f>1.3*10^-9</f>
-        <v>1.3000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="312" spans="4:12" x14ac:dyDescent="0.3">
+        <f>1.3*10^-6</f>
+        <v>1.3E-6</v>
+      </c>
+    </row>
+    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
       <c r="I312">
-        <f>0.4*10^-9</f>
-        <v>4.0000000000000007E-10</v>
-      </c>
-    </row>
-    <row r="314" spans="4:12" x14ac:dyDescent="0.3">
+        <f>0.4*10^-6</f>
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
       <c r="H314">
         <f>H303*H309</f>
-        <v>1.5451721191406248E-4</v>
+        <v>0.15451721191406251</v>
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.9363525390625001E-5</v>
+        <v>8.5643615722656261E-2</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
-        <v>5.6333776550292966E-3</v>
-      </c>
-    </row>
-    <row r="315" spans="4:12" x14ac:dyDescent="0.3">
+        <v>5.6333776550292969</v>
+      </c>
+    </row>
+    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
-        <v>1.7519725341796875E-4</v>
-      </c>
-    </row>
-    <row r="316" spans="4:12" x14ac:dyDescent="0.3">
+        <v>0.17519725341796874</v>
+      </c>
+    </row>
+    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
-        <v>3.7959404907226562E-7</v>
-      </c>
-    </row>
-    <row r="317" spans="4:12" x14ac:dyDescent="0.3">
+        <v>3.7959404907226564E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
-        <v>1.1679816894531252E-7</v>
-      </c>
-    </row>
-    <row r="320" spans="4:12" x14ac:dyDescent="0.3">
+        <v>1.1679816894531249E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -61760,37 +62249,78 @@
       </c>
       <c r="G320">
         <f>H309+K309+L309</f>
-        <v>5.0999999999999993E-5</v>
-      </c>
-    </row>
-    <row r="321" spans="4:12" x14ac:dyDescent="0.3">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="I320" t="s">
+        <v>23</v>
+      </c>
+      <c r="J320">
+        <v>3.7</v>
+      </c>
+      <c r="K320">
+        <f>J320*G320</f>
+        <v>0.27380000000000004</v>
+      </c>
+      <c r="M320" t="s">
+        <v>24</v>
+      </c>
+      <c r="N320">
+        <f>(K320/12) * 1000</f>
+        <v>22.81666666666667</v>
+      </c>
+    </row>
+    <row r="321" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E321" t="s">
         <v>11</v>
       </c>
       <c r="G321">
         <f>G320+I310</f>
-        <v>5.1599999999999994E-5</v>
-      </c>
-    </row>
-    <row r="322" spans="4:12" x14ac:dyDescent="0.3">
+        <v>7.4600000000000014E-2</v>
+      </c>
+      <c r="K321">
+        <f>G321*J320</f>
+        <v>0.27602000000000004</v>
+      </c>
+      <c r="N321">
+        <f>(K321/12) * 1000</f>
+        <v>23.001666666666669</v>
+      </c>
+    </row>
+    <row r="322" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E322" t="s">
         <v>12</v>
       </c>
       <c r="G322">
         <f>G320+I311</f>
-        <v>5.1001299999999996E-5</v>
-      </c>
-    </row>
-    <row r="323" spans="4:12" x14ac:dyDescent="0.3">
+        <v>7.4001300000000006E-2</v>
+      </c>
+      <c r="K322">
+        <f>G322*J320</f>
+        <v>0.27380481000000001</v>
+      </c>
+      <c r="N322">
+        <f>(K322/12) * 1000</f>
+        <v>22.8170675</v>
+      </c>
+    </row>
+    <row r="323" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E323" t="s">
         <v>13</v>
       </c>
       <c r="G323">
         <f>G320+I312</f>
-        <v>5.1000399999999994E-5</v>
-      </c>
-    </row>
-    <row r="327" spans="4:12" x14ac:dyDescent="0.3">
+        <v>7.4000400000000008E-2</v>
+      </c>
+      <c r="K323">
+        <f>G323*J320</f>
+        <v>0.27380148000000004</v>
+      </c>
+      <c r="N323">
+        <f>(K323/12) * 1000</f>
+        <v>22.816790000000005</v>
+      </c>
+    </row>
+    <row r="327" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D327" t="s">
         <v>22</v>
       </c>
@@ -61807,42 +62337,121 @@
         <v>0.99822997999999996</v>
       </c>
     </row>
-    <row r="329" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>19</v>
       </c>
-      <c r="H329" s="2">
+      <c r="H329" s="1">
         <v>1.59484E-9</v>
       </c>
-      <c r="K329" s="2">
+      <c r="K329" s="1">
         <v>4.2480500000000001E-8</v>
       </c>
-      <c r="L329" s="2">
+      <c r="L329" s="1">
         <v>1.9964599999999999E-5</v>
       </c>
-    </row>
-    <row r="330" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="N329" t="s">
+        <v>23</v>
+      </c>
+      <c r="O329">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="330" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E330" t="s">
         <v>11</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="1">
         <v>5.9240099999999996E-7</v>
       </c>
-    </row>
-    <row r="331" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O330" s="1">
+        <f>I330*O329</f>
+        <v>2.1918836999999999E-6</v>
+      </c>
+    </row>
+    <row r="331" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E331" t="s">
         <v>12</v>
       </c>
-      <c r="I331" s="2">
+      <c r="I331" s="1">
         <v>3.7957200000000001E-7</v>
       </c>
-    </row>
-    <row r="332" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="O331" s="1">
+        <f>I331*O329</f>
+        <v>1.4044164E-6</v>
+      </c>
+    </row>
+    <row r="332" spans="4:15" x14ac:dyDescent="0.3">
       <c r="E332" t="s">
         <v>13</v>
       </c>
-      <c r="I332" s="2">
+      <c r="I332" s="1">
         <v>3.9493399999999998E-10</v>
+      </c>
+      <c r="O332" s="1">
+        <f>I332*O329</f>
+        <v>1.4612558000000001E-9</v>
+      </c>
+    </row>
+    <row r="335" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D335" t="s">
+        <v>20</v>
+      </c>
+      <c r="E335" t="s">
+        <v>21</v>
+      </c>
+      <c r="G335">
+        <f>H329+K329+L329</f>
+        <v>2.0008675339999999E-5</v>
+      </c>
+      <c r="I335" t="s">
+        <v>23</v>
+      </c>
+      <c r="J335">
+        <v>3.7</v>
+      </c>
+      <c r="K335">
+        <f>G335*J335</f>
+        <v>7.4032098758E-5</v>
+      </c>
+    </row>
+    <row r="336" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E336" t="s">
+        <v>11</v>
+      </c>
+      <c r="G336">
+        <f>G335+I330</f>
+        <v>2.060107634E-5</v>
+      </c>
+      <c r="K336">
+        <f>G336*J335</f>
+        <v>7.622398245800001E-5</v>
+      </c>
+    </row>
+    <row r="337" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E337" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337">
+        <f>G335+I331</f>
+        <v>2.0388247339999998E-5</v>
+      </c>
+      <c r="K337">
+        <f>G337*J335</f>
+        <v>7.5436515157999999E-5</v>
+      </c>
+    </row>
+    <row r="338" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E338" t="s">
+        <v>13</v>
+      </c>
+      <c r="G338">
+        <f>H329+I332</f>
+        <v>1.9897739999999999E-9</v>
+      </c>
+      <c r="K338">
+        <f>G338*J335</f>
+        <v>7.3621638000000001E-9</v>
       </c>
     </row>
   </sheetData>

--- a/datalogging/power consumption/energest/converted868-merged.xlsx
+++ b/datalogging/power consumption/energest/converted868-merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univ\SensorManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B279F7-C1D9-4F27-87DF-98BB764C7FD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE4338-9339-4196-B6DA-B834E4ABD007}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="4" xr2:uid="{F30A0F9C-AB45-457A-873D-50580520C9C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{F30A0F9C-AB45-457A-873D-50580520C9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="run1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="28">
   <si>
     <t>packet</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t xml:space="preserve">mW/h: </t>
+  </si>
+  <si>
+    <t>joule to mWh:</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -473,16 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3232CE-32D9-40CA-A013-F5C75162A369}">
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:S338"/>
   <sheetViews>
-    <sheetView topLeftCell="B308" workbookViewId="0">
-      <selection activeCell="O313" sqref="O313"/>
+    <sheetView tabSelected="1" topLeftCell="J314" workbookViewId="0">
+      <selection activeCell="N319" sqref="N319:Q319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -12544,7 +12555,7 @@
         <v>296.4940185546875</v>
       </c>
     </row>
-    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -12553,7 +12564,7 @@
         <v>291.97097778320313</v>
       </c>
     </row>
-    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -12573,7 +12584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H309">
         <f>20*10^-3</f>
         <v>0.02</v>
@@ -12587,7 +12598,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
@@ -12596,7 +12607,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
@@ -12605,7 +12616,7 @@
         <v>1.3E-6</v>
       </c>
     </row>
-    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
@@ -12614,7 +12625,7 @@
         <v>3.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
@@ -12631,25 +12642,33 @@
         <v>5.6333863525390626</v>
       </c>
     </row>
-    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
         <v>0.17518258666992187</v>
       </c>
     </row>
-    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
         <v>3.7956227111816406E-4</v>
       </c>
     </row>
-    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
         <v>1.1678839111328124E-4</v>
       </c>
     </row>
-    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="N319" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -12657,8 +12676,8 @@
         <v>21</v>
       </c>
       <c r="G320">
-        <f>H309+K309+L309</f>
-        <v>5.1000000000000004E-2</v>
+        <f>H314+K314+L314</f>
+        <v>5.817753173828125</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -12668,14 +12687,21 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>0.18870000000000003</v>
+        <v>21.525686743164062</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
-        <f>(K320/12) * 1000</f>
-        <v>15.725000000000003</v>
+        <f>K320*S320</f>
+        <v>5.9793557544366038</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>25</v>
+      </c>
+      <c r="S320">
+        <f>0.2777777</f>
+        <v>0.27777770000000002</v>
       </c>
     </row>
     <row r="321" spans="4:15" x14ac:dyDescent="0.3">
@@ -12683,16 +12709,16 @@
         <v>11</v>
       </c>
       <c r="G321">
-        <f>G320+I310</f>
-        <v>5.1600000000000007E-2</v>
+        <f>G320+I315</f>
+        <v>5.9929357604980469</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>0.19092000000000003</v>
+        <v>22.173862313842776</v>
       </c>
       <c r="N321">
-        <f>(K321/12) * 1000</f>
-        <v>15.910000000000004</v>
+        <f>K321*S320</f>
+        <v>6.1594044736559246</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -12700,16 +12726,16 @@
         <v>12</v>
       </c>
       <c r="G322">
-        <f>G320+I311</f>
-        <v>5.1001300000000006E-2</v>
+        <f>G320+I316</f>
+        <v>5.8181327360992432</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>0.18870481000000003</v>
+        <v>21.5270911235672</v>
       </c>
       <c r="N322">
-        <f>(K322/12) * 1000</f>
-        <v>15.725400833333337</v>
+        <f>K322*S320</f>
+        <v>5.9797458599949129</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -12717,16 +12743,16 @@
         <v>13</v>
       </c>
       <c r="G323">
-        <f>G320+I312</f>
-        <v>5.1000400000000001E-2</v>
+        <f>G320+I317</f>
+        <v>5.8178699622192385</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>0.18870148</v>
+        <v>21.526118860211184</v>
       </c>
       <c r="N323">
-        <f>(K323/12) * 1000</f>
-        <v>15.725123333333334</v>
+        <f>K323*S320</f>
+        <v>5.9794757869160851</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
@@ -12874,10 +12900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FD58DA-54AC-45E0-A57A-7D1E09A4CA94}">
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:S338"/>
   <sheetViews>
-    <sheetView topLeftCell="B305" workbookViewId="0">
-      <selection activeCell="H309" sqref="H309:L312"/>
+    <sheetView topLeftCell="I305" workbookViewId="0">
+      <selection activeCell="K319" sqref="K319:N319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24941,7 +24967,7 @@
         <v>296.494140625</v>
       </c>
     </row>
-    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -24950,7 +24976,7 @@
         <v>291.98403930664063</v>
       </c>
     </row>
-    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -24970,7 +24996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H309">
         <f>20*10^-3</f>
         <v>0.02</v>
@@ -24984,7 +25010,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
@@ -24993,7 +25019,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
@@ -25002,7 +25028,7 @@
         <v>1.3E-6</v>
       </c>
     </row>
-    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
@@ -25011,7 +25037,7 @@
         <v>3.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
@@ -25028,25 +25054,33 @@
         <v>5.6333886718750001</v>
       </c>
     </row>
-    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
         <v>0.17519042358398437</v>
       </c>
     </row>
-    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
         <v>3.7957925109863283E-4</v>
       </c>
     </row>
-    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
         <v>1.1679361572265624E-4</v>
       </c>
     </row>
-    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K319" t="s">
+        <v>26</v>
+      </c>
+      <c r="N319" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -25054,8 +25088,8 @@
         <v>21</v>
       </c>
       <c r="G320">
-        <f>H309+K309+L309</f>
-        <v>5.1000000000000004E-2</v>
+        <f>H314+K314+L314</f>
+        <v>5.8174902343750006</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -25065,14 +25099,21 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>0.18870000000000003</v>
+        <v>21.524713867187504</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
-        <f>(K320/12) * 1000</f>
-        <v>15.725000000000003</v>
+        <f>K320*S320</f>
+        <v>5.9790855111854508</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>25</v>
+      </c>
+      <c r="S320">
+        <f>0.2777777</f>
+        <v>0.27777770000000002</v>
       </c>
     </row>
     <row r="321" spans="4:15" x14ac:dyDescent="0.3">
@@ -25080,16 +25121,16 @@
         <v>11</v>
       </c>
       <c r="G321">
-        <f>G320+I310</f>
-        <v>5.1600000000000007E-2</v>
+        <f>G320+I315</f>
+        <v>5.9926806579589851</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>0.19092000000000003</v>
+        <v>22.172918434448246</v>
       </c>
       <c r="N321">
-        <f>(K321/12) * 1000</f>
-        <v>15.910000000000004</v>
+        <f>K321*S320</f>
+        <v>6.1591422850086346</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -25097,16 +25138,16 @@
         <v>12</v>
       </c>
       <c r="G322">
-        <f>G320+I311</f>
-        <v>5.1001300000000006E-2</v>
+        <f>G320+I316</f>
+        <v>5.8178698136260989</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>0.18870481000000003</v>
+        <v>21.526118310416567</v>
       </c>
       <c r="N322">
-        <f>(K322/12) * 1000</f>
-        <v>15.725400833333337</v>
+        <f>K322*S320</f>
+        <v>5.9794756341954001</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -25114,16 +25155,16 @@
         <v>13</v>
       </c>
       <c r="G323">
-        <f>G320+I312</f>
-        <v>5.1000400000000001E-2</v>
+        <f>G320+I317</f>
+        <v>5.8176070279907233</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>0.18870148</v>
+        <v>21.525146003565677</v>
       </c>
       <c r="N323">
-        <f>(K323/12) * 1000</f>
-        <v>15.725123333333334</v>
+        <f>K323*S320</f>
+        <v>5.9792055490346661</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
@@ -25271,10 +25312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A0B85E-A40C-4037-871C-C65DF98E32B2}">
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:S338"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="H309" sqref="H309:L312"/>
+    <sheetView topLeftCell="I298" workbookViewId="0">
+      <selection activeCell="K319" sqref="K319:N319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37338,7 +37379,7 @@
         <v>296.49349975585938</v>
       </c>
     </row>
-    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -37347,7 +37388,7 @@
         <v>292.03347778320313</v>
       </c>
     </row>
-    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -37367,7 +37408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H309">
         <f>20*10^-3</f>
         <v>0.02</v>
@@ -37381,7 +37422,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
@@ -37390,7 +37431,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
@@ -37399,7 +37440,7 @@
         <v>1.3E-6</v>
       </c>
     </row>
-    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
@@ -37408,7 +37449,7 @@
         <v>3.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
@@ -37425,25 +37466,33 @@
         <v>5.6333764953613281</v>
       </c>
     </row>
-    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
         <v>0.17522008666992187</v>
       </c>
     </row>
-    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
         <v>3.7964352111816407E-4</v>
       </c>
     </row>
-    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
         <v>1.1681339111328124E-4</v>
       </c>
     </row>
-    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K319" t="s">
+        <v>26</v>
+      </c>
+      <c r="N319" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -37451,8 +37500,8 @@
         <v>21</v>
       </c>
       <c r="G320">
-        <f>H309+K309+L309</f>
-        <v>5.1000000000000004E-2</v>
+        <f>H314+K314+L314</f>
+        <v>5.8165126037597652</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -37462,14 +37511,21 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>0.18870000000000003</v>
+        <v>21.521096633911132</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
-        <f>(K320/12) * 1000</f>
-        <v>15.725000000000003</v>
+        <f>K320*S320</f>
+        <v>5.9780807244455767</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>25</v>
+      </c>
+      <c r="S320">
+        <f>0.2777777</f>
+        <v>0.27777770000000002</v>
       </c>
     </row>
     <row r="321" spans="4:15" x14ac:dyDescent="0.3">
@@ -37477,16 +37533,16 @@
         <v>11</v>
       </c>
       <c r="G321">
-        <f>G320+I310</f>
-        <v>5.1600000000000007E-2</v>
+        <f>G320+I315</f>
+        <v>5.9917326904296875</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>0.19092000000000003</v>
+        <v>22.169410954589846</v>
       </c>
       <c r="N321">
-        <f>(K321/12) * 1000</f>
-        <v>15.910000000000004</v>
+        <f>K321*S320</f>
+        <v>6.1581679853207723</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -37494,16 +37550,16 @@
         <v>12</v>
       </c>
       <c r="G322">
-        <f>G320+I311</f>
-        <v>5.1001300000000006E-2</v>
+        <f>G320+I316</f>
+        <v>5.8168922472808831</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>0.18870481000000003</v>
+        <v>21.522501314939269</v>
       </c>
       <c r="N322">
-        <f>(K322/12) * 1000</f>
-        <v>15.725400833333337</v>
+        <f>K322*S320</f>
+        <v>5.9784709135108063</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -37511,16 +37567,16 @@
         <v>13</v>
       </c>
       <c r="G323">
-        <f>G320+I312</f>
-        <v>5.1000400000000001E-2</v>
+        <f>G320+I317</f>
+        <v>5.8166294171508781</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>0.18870148</v>
+        <v>21.521528843458249</v>
       </c>
       <c r="N323">
-        <f>(K323/12) * 1000</f>
-        <v>15.725123333333334</v>
+        <f>K323*S320</f>
+        <v>5.9782007826194929</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
@@ -37668,10 +37724,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C591C4EB-3C62-43B1-BAA6-F30B8357220D}">
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:S338"/>
   <sheetViews>
-    <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="H309" sqref="H309:L312"/>
+    <sheetView topLeftCell="G302" workbookViewId="0">
+      <selection activeCell="K319" sqref="K319:N319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49738,7 +49794,7 @@
         <v>296.49365234375</v>
       </c>
     </row>
-    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -49747,7 +49803,7 @@
         <v>292.00408935546875</v>
       </c>
     </row>
-    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -49767,7 +49823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H309">
         <f>20*10^-3</f>
         <v>0.02</v>
@@ -49781,7 +49837,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
@@ -49790,7 +49846,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
@@ -49799,7 +49855,7 @@
         <v>1.3E-6</v>
       </c>
     </row>
-    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
@@ -49808,7 +49864,7 @@
         <v>3.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
@@ -49825,25 +49881,33 @@
         <v>5.63337939453125</v>
       </c>
     </row>
-    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
         <v>0.17520245361328124</v>
       </c>
     </row>
-    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
         <v>3.7960531616210939E-4</v>
       </c>
     </row>
-    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
         <v>1.168016357421875E-4</v>
       </c>
     </row>
-    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K319" t="s">
+        <v>26</v>
+      </c>
+      <c r="N319" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -49851,8 +49915,8 @@
         <v>21</v>
       </c>
       <c r="G320">
-        <f>H309+K309+L309</f>
-        <v>5.1000000000000004E-2</v>
+        <f>H314+K314+L314</f>
+        <v>5.8171015625000004</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -49862,14 +49926,21 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>0.18870000000000003</v>
+        <v>21.523275781250003</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
-        <f>(K320/12) * 1000</f>
-        <v>15.725000000000003</v>
+        <f>K320*S320</f>
+        <v>5.9786860429813293</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>25</v>
+      </c>
+      <c r="S320">
+        <f>0.2777777</f>
+        <v>0.27777770000000002</v>
       </c>
     </row>
     <row r="321" spans="4:15" x14ac:dyDescent="0.3">
@@ -49877,16 +49948,16 @@
         <v>11</v>
       </c>
       <c r="G321">
-        <f>G320+I310</f>
-        <v>5.1600000000000007E-2</v>
+        <f>G320+I315</f>
+        <v>5.9923040161132821</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>0.19092000000000003</v>
+        <v>22.171524859619144</v>
       </c>
       <c r="N321">
-        <f>(K321/12) * 1000</f>
-        <v>15.910000000000004</v>
+        <f>K321*S320</f>
+        <v>6.1587551809978294</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -49894,16 +49965,16 @@
         <v>12</v>
       </c>
       <c r="G322">
-        <f>G320+I311</f>
-        <v>5.1001300000000006E-2</v>
+        <f>G320+I316</f>
+        <v>5.8174811678161626</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>0.18870481000000003</v>
+        <v>21.524680320919803</v>
       </c>
       <c r="N322">
-        <f>(K322/12) * 1000</f>
-        <v>15.725400833333337</v>
+        <f>K322*S320</f>
+        <v>5.9790761927803651</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -49911,16 +49982,16 @@
         <v>13</v>
       </c>
       <c r="G323">
-        <f>G320+I312</f>
-        <v>5.1000400000000001E-2</v>
+        <f>G320+I317</f>
+        <v>5.8172183641357424</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>0.18870148</v>
+        <v>21.523707947302249</v>
       </c>
       <c r="N323">
-        <f>(K323/12) * 1000</f>
-        <v>15.725123333333334</v>
+        <f>K323*S320</f>
+        <v>5.9788060890733403</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
@@ -50068,10 +50139,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E516A6-6E6E-4755-BC29-C8CBC992455D}">
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:S338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E301" workbookViewId="0">
-      <selection activeCell="K310" sqref="K310"/>
+    <sheetView topLeftCell="I304" workbookViewId="0">
+      <selection activeCell="K319" sqref="K319:N319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62135,7 +62206,7 @@
         <v>296.49356079101563</v>
       </c>
     </row>
-    <row r="306" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
         <v>9</v>
       </c>
@@ -62144,7 +62215,7 @@
         <v>291.99542236328125</v>
       </c>
     </row>
-    <row r="308" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>10</v>
       </c>
@@ -62164,7 +62235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H309">
         <f>20*10^-3</f>
         <v>0.02</v>
@@ -62178,7 +62249,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="310" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>11</v>
       </c>
@@ -62187,7 +62258,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="311" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E311" t="s">
         <v>12</v>
       </c>
@@ -62196,7 +62267,7 @@
         <v>1.3E-6</v>
       </c>
     </row>
-    <row r="312" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>13</v>
       </c>
@@ -62205,7 +62276,7 @@
         <v>3.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="314" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D314" t="s">
         <v>19</v>
       </c>
@@ -62222,25 +62293,33 @@
         <v>5.6333776550292969</v>
       </c>
     </row>
-    <row r="315" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I315">
         <f>I306*I310</f>
         <v>0.17519725341796874</v>
       </c>
     </row>
-    <row r="316" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I306*I311</f>
         <v>3.7959404907226564E-4</v>
       </c>
     </row>
-    <row r="317" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:19" x14ac:dyDescent="0.3">
       <c r="I317">
         <f>I306*I312</f>
         <v>1.1679816894531249E-4</v>
       </c>
     </row>
-    <row r="320" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="K319" t="s">
+        <v>26</v>
+      </c>
+      <c r="N319" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="320" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>20</v>
       </c>
@@ -62248,8 +62327,8 @@
         <v>21</v>
       </c>
       <c r="G320">
-        <f>H309+K309+L309</f>
-        <v>7.400000000000001E-2</v>
+        <f>H314+K314+L314</f>
+        <v>5.8735384826660155</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -62259,14 +62338,21 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>0.27380000000000004</v>
+        <v>21.732092385864259</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
-        <f>(K320/12) * 1000</f>
-        <v>22.81666666666667</v>
+        <f>K320*S320</f>
+        <v>6.0366906391328872</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>25</v>
+      </c>
+      <c r="S320">
+        <f>0.2777777</f>
+        <v>0.27777770000000002</v>
       </c>
     </row>
     <row r="321" spans="4:15" x14ac:dyDescent="0.3">
@@ -62274,16 +62360,16 @@
         <v>11</v>
       </c>
       <c r="G321">
-        <f>G320+I310</f>
-        <v>7.4600000000000014E-2</v>
+        <f>G320+I315</f>
+        <v>6.0487357360839846</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>0.27602000000000004</v>
+        <v>22.380322223510746</v>
       </c>
       <c r="N321">
-        <f>(K321/12) * 1000</f>
-        <v>23.001666666666669</v>
+        <f>K321*S320</f>
+        <v>6.2167544325057014</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -62291,16 +62377,16 @@
         <v>12</v>
       </c>
       <c r="G322">
-        <f>G320+I311</f>
-        <v>7.4001300000000006E-2</v>
+        <f>G320+I316</f>
+        <v>5.8739180767150874</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>0.27380481000000001</v>
+        <v>21.733496883845824</v>
       </c>
       <c r="N322">
-        <f>(K322/12) * 1000</f>
-        <v>22.8170675</v>
+        <f>K322*S320</f>
+        <v>6.0370807773518607</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -62308,16 +62394,16 @@
         <v>13</v>
       </c>
       <c r="G323">
-        <f>G320+I312</f>
-        <v>7.4000400000000008E-2</v>
+        <f>G320+I317</f>
+        <v>5.8736552808349609</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>0.27380148000000004</v>
+        <v>21.732524539089358</v>
       </c>
       <c r="N323">
-        <f>(K323/12) * 1000</f>
-        <v>22.816790000000005</v>
+        <f>K323*S320</f>
+        <v>6.0368106816618026</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">

--- a/datalogging/power consumption/energest/converted868-merged.xlsx
+++ b/datalogging/power consumption/energest/converted868-merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univ\SensorManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE4338-9339-4196-B6DA-B834E4ABD007}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B90F0D-F7B2-40BB-9B9D-81EEEFF11001}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{F30A0F9C-AB45-457A-873D-50580520C9C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="4" xr2:uid="{F30A0F9C-AB45-457A-873D-50580520C9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="run1" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3232CE-32D9-40CA-A013-F5C75162A369}">
   <dimension ref="A1:S338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J314" workbookViewId="0">
-      <selection activeCell="N319" sqref="N319:Q319"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="K309" sqref="K309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12590,8 +12590,8 @@
         <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-3</f>
-        <v>1.2E-2</v>
+        <f>46*10^-3</f>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="L309">
         <f>19*10^-3</f>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.9361328124999999E-2</v>
+        <v>0.1125517578125</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
@@ -12677,7 +12677,7 @@
       </c>
       <c r="G320">
         <f>H314+K314+L314</f>
-        <v>5.817753173828125</v>
+        <v>5.9009436035156249</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -12687,14 +12687,14 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>21.525686743164062</v>
+        <v>21.833491333007814</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
         <f>K320*S320</f>
-        <v>5.9793557544366038</v>
+        <v>6.0648570054528452</v>
       </c>
       <c r="Q320" t="s">
         <v>25</v>
@@ -12710,15 +12710,15 @@
       </c>
       <c r="G321">
         <f>G320+I315</f>
-        <v>5.9929357604980469</v>
+        <v>6.0761261901855468</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>22.173862313842776</v>
+        <v>22.481666903686524</v>
       </c>
       <c r="N321">
         <f>K321*S320</f>
-        <v>6.1594044736559246</v>
+        <v>6.2449057246721642</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -12727,15 +12727,15 @@
       </c>
       <c r="G322">
         <f>G320+I316</f>
-        <v>5.8181327360992432</v>
+        <v>5.9013231657867431</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>21.5270911235672</v>
+        <v>21.834895713410951</v>
       </c>
       <c r="N322">
         <f>K322*S320</f>
-        <v>5.9797458599949129</v>
+        <v>6.0652471110111534</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -12744,15 +12744,15 @@
       </c>
       <c r="G323">
         <f>G320+I317</f>
-        <v>5.8178699622192385</v>
+        <v>5.9010603919067384</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>21.526118860211184</v>
+        <v>21.833923450054932</v>
       </c>
       <c r="N323">
         <f>K323*S320</f>
-        <v>5.9794757869160851</v>
+        <v>6.0649770379323247</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
@@ -12903,7 +12903,7 @@
   <dimension ref="A1:S338"/>
   <sheetViews>
     <sheetView topLeftCell="I305" workbookViewId="0">
-      <selection activeCell="K319" sqref="K319:N319"/>
+      <selection activeCell="K309" sqref="K309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25002,8 +25002,8 @@
         <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-3</f>
-        <v>1.2E-2</v>
+        <f>46*10^-3</f>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="L309">
         <f>19*10^-3</f>
@@ -25047,7 +25047,7 @@
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.9357299804687501E-2</v>
+        <v>0.11253631591796875</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
@@ -25089,7 +25089,7 @@
       </c>
       <c r="G320">
         <f>H314+K314+L314</f>
-        <v>5.8174902343750006</v>
+        <v>5.9006692504882814</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -25099,14 +25099,14 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>21.524713867187504</v>
+        <v>21.832476226806641</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
         <f>K320*S320</f>
-        <v>5.9790855111854508</v>
+        <v>6.0645750315870277</v>
       </c>
       <c r="Q320" t="s">
         <v>25</v>
@@ -25122,15 +25122,15 @@
       </c>
       <c r="G321">
         <f>G320+I315</f>
-        <v>5.9926806579589851</v>
+        <v>6.0758596740722659</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>22.172918434448246</v>
+        <v>22.480680794067386</v>
       </c>
       <c r="N321">
         <f>K321*S320</f>
-        <v>6.1591422850086346</v>
+        <v>6.2446318054102123</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -25139,15 +25139,15 @@
       </c>
       <c r="G322">
         <f>G320+I316</f>
-        <v>5.8178698136260989</v>
+        <v>5.9010488297393797</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>21.526118310416567</v>
+        <v>21.833880670035708</v>
       </c>
       <c r="N322">
         <f>K322*S320</f>
-        <v>5.9794756341954001</v>
+        <v>6.0649651545969778</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -25156,15 +25156,15 @@
       </c>
       <c r="G323">
         <f>G320+I317</f>
-        <v>5.8176070279907233</v>
+        <v>5.9007860441040041</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>21.525146003565677</v>
+        <v>21.832908363184817</v>
       </c>
       <c r="N323">
         <f>K323*S320</f>
-        <v>5.9792055490346661</v>
+        <v>6.0646950694362438</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
@@ -25315,7 +25315,7 @@
   <dimension ref="A1:S338"/>
   <sheetViews>
     <sheetView topLeftCell="I298" workbookViewId="0">
-      <selection activeCell="K319" sqref="K319:N319"/>
+      <selection activeCell="K309" sqref="K309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37414,8 +37414,8 @@
         <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-3</f>
-        <v>1.2E-2</v>
+        <f>46*10^-3</f>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="L309">
         <f>19*10^-3</f>
@@ -37459,7 +37459,7 @@
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.9367187499999999E-2</v>
+        <v>0.11257421875</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
@@ -37501,7 +37501,7 @@
       </c>
       <c r="G320">
         <f>H314+K314+L314</f>
-        <v>5.8165126037597652</v>
+        <v>5.8997196350097658</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -37511,14 +37511,14 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>21.521096633911132</v>
+        <v>21.828962649536134</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
         <f>K320*S320</f>
-        <v>5.9780807244455767</v>
+        <v>6.0635990381740541</v>
       </c>
       <c r="Q320" t="s">
         <v>25</v>
@@ -37534,15 +37534,15 @@
       </c>
       <c r="G321">
         <f>G320+I315</f>
-        <v>5.9917326904296875</v>
+        <v>6.0749397216796881</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>22.169410954589846</v>
+        <v>22.477276970214849</v>
       </c>
       <c r="N321">
         <f>K321*S320</f>
-        <v>6.1581679853207723</v>
+        <v>6.2436862990492497</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -37551,15 +37551,15 @@
       </c>
       <c r="G322">
         <f>G320+I316</f>
-        <v>5.8168922472808831</v>
+        <v>5.9000992785308837</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>21.522501314939269</v>
+        <v>21.830367330564272</v>
       </c>
       <c r="N322">
         <f>K322*S320</f>
-        <v>5.9784709135108063</v>
+        <v>6.0639892272392837</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -37568,15 +37568,15 @@
       </c>
       <c r="G323">
         <f>G320+I317</f>
-        <v>5.8166294171508781</v>
+        <v>5.8998364484008787</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>21.521528843458249</v>
+        <v>21.829394859083251</v>
       </c>
       <c r="N323">
         <f>K323*S320</f>
-        <v>5.9782007826194929</v>
+        <v>6.0637190963479703</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
@@ -37727,7 +37727,7 @@
   <dimension ref="A1:S338"/>
   <sheetViews>
     <sheetView topLeftCell="G302" workbookViewId="0">
-      <selection activeCell="K319" sqref="K319:N319"/>
+      <selection activeCell="K309" sqref="K309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49829,8 +49829,8 @@
         <v>0.02</v>
       </c>
       <c r="K309">
-        <f>12*10^-3</f>
-        <v>1.2E-2</v>
+        <f>46*10^-3</f>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="L309">
         <f>19*10^-3</f>
@@ -49874,7 +49874,7 @@
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>2.9366088867187501E-2</v>
+        <v>0.11257000732421875</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
@@ -49916,7 +49916,7 @@
       </c>
       <c r="G320">
         <f>H314+K314+L314</f>
-        <v>5.8171015625000004</v>
+        <v>5.900305480957031</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -49926,14 +49926,14 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>21.523275781250003</v>
+        <v>21.831130279541014</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
         <f>K320*S320</f>
-        <v>5.9786860429813293</v>
+        <v>6.0642011574512606</v>
       </c>
       <c r="Q320" t="s">
         <v>25</v>
@@ -49949,15 +49949,15 @@
       </c>
       <c r="G321">
         <f>G320+I315</f>
-        <v>5.9923040161132821</v>
+        <v>6.0755079345703127</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>22.171524859619144</v>
+        <v>22.479379357910158</v>
       </c>
       <c r="N321">
         <f>K321*S320</f>
-        <v>6.1587551809978294</v>
+        <v>6.2442702954677607</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -49966,15 +49966,15 @@
       </c>
       <c r="G322">
         <f>G320+I316</f>
-        <v>5.8174811678161626</v>
+        <v>5.9006850862731932</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>21.524680320919803</v>
+        <v>21.832534819210817</v>
       </c>
       <c r="N322">
         <f>K322*S320</f>
-        <v>5.9790761927803651</v>
+        <v>6.0645913072502973</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -49983,15 +49983,15 @@
       </c>
       <c r="G323">
         <f>G320+I317</f>
-        <v>5.8172183641357424</v>
+        <v>5.900422282592773</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>21.523707947302249</v>
+        <v>21.83156244559326</v>
       </c>
       <c r="N323">
         <f>K323*S320</f>
-        <v>5.9788060890733403</v>
+        <v>6.0643212035432716</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
@@ -50141,8 +50141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E516A6-6E6E-4755-BC29-C8CBC992455D}">
   <dimension ref="A1:S338"/>
   <sheetViews>
-    <sheetView topLeftCell="I304" workbookViewId="0">
-      <selection activeCell="K319" sqref="K319:N319"/>
+    <sheetView tabSelected="1" topLeftCell="I304" workbookViewId="0">
+      <selection activeCell="O314" sqref="O314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62241,8 +62241,8 @@
         <v>0.02</v>
       </c>
       <c r="K309">
-        <f>35*10^-3</f>
-        <v>3.5000000000000003E-2</v>
+        <f>46*10^-3</f>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="L309">
         <f>19*10^-3</f>
@@ -62286,7 +62286,7 @@
       </c>
       <c r="K314">
         <f>K303*K309</f>
-        <v>8.5643615722656261E-2</v>
+        <v>0.1125601806640625</v>
       </c>
       <c r="L314">
         <f>L303*L309</f>
@@ -62328,7 +62328,7 @@
       </c>
       <c r="G320">
         <f>H314+K314+L314</f>
-        <v>5.8735384826660155</v>
+        <v>5.900455047607422</v>
       </c>
       <c r="I320" t="s">
         <v>23</v>
@@ -62338,14 +62338,14 @@
       </c>
       <c r="K320">
         <f>J320*G320</f>
-        <v>21.732092385864259</v>
+        <v>21.831683676147463</v>
       </c>
       <c r="M320" t="s">
         <v>24</v>
       </c>
       <c r="N320">
         <f>K320*S320</f>
-        <v>6.0366906391328872</v>
+        <v>6.0643548786877872</v>
       </c>
       <c r="Q320" t="s">
         <v>25</v>
@@ -62361,15 +62361,15 @@
       </c>
       <c r="G321">
         <f>G320+I315</f>
-        <v>6.0487357360839846</v>
+        <v>6.0756523010253911</v>
       </c>
       <c r="K321">
         <f>G321*J320</f>
-        <v>22.380322223510746</v>
+        <v>22.479913513793949</v>
       </c>
       <c r="N321">
         <f>K321*S320</f>
-        <v>6.2167544325057014</v>
+        <v>6.2444186720606023</v>
       </c>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.3">
@@ -62378,15 +62378,15 @@
       </c>
       <c r="G322">
         <f>G320+I316</f>
-        <v>5.8739180767150874</v>
+        <v>5.9008346416564939</v>
       </c>
       <c r="K322">
         <f>G322*J320</f>
-        <v>21.733496883845824</v>
+        <v>21.833088174129028</v>
       </c>
       <c r="N322">
         <f>K322*S320</f>
-        <v>6.0370807773518607</v>
+        <v>6.0647450169067616</v>
       </c>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.3">
@@ -62395,15 +62395,15 @@
       </c>
       <c r="G323">
         <f>G320+I317</f>
-        <v>5.8736552808349609</v>
+        <v>5.9005718457763674</v>
       </c>
       <c r="K323">
         <f>G323*J320</f>
-        <v>21.732524539089358</v>
+        <v>21.832115829372562</v>
       </c>
       <c r="N323">
         <f>K323*S320</f>
-        <v>6.0368106816618026</v>
+        <v>6.0644749212167026</v>
       </c>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.3">
